--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="230">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -493,6 +493,222 @@
   </si>
   <si>
     <t xml:space="preserve">Tabbed Build Menus </t>
+  </si>
+  <si>
+    <t>Existing Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is so the user can quickplay with a pre-built clinic. </t>
+  </si>
+  <si>
+    <t>Tool-tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script is written, just needs attaching to ALL objects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Buttons </t>
+  </si>
+  <si>
+    <t>Buttons to control an object (Move,Sell,Repair,Info)</t>
+  </si>
+  <si>
+    <t>Degradable Objects</t>
+  </si>
+  <si>
+    <t>Drag and drop building</t>
+  </si>
+  <si>
+    <t>Build menu with categories</t>
+  </si>
+  <si>
+    <t>Money manager</t>
+  </si>
+  <si>
+    <t>Finance Screen</t>
+  </si>
+  <si>
+    <t>We need to work out what is going in here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertising </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money Loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to appear in outgoings with interest. </t>
+  </si>
+  <si>
+    <t>Automated Staff</t>
+  </si>
+  <si>
+    <t>Automated Patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Costs </t>
+  </si>
+  <si>
+    <t>Income from equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income from patients </t>
+  </si>
+  <si>
+    <t>Toilets</t>
+  </si>
+  <si>
+    <t>Prebuilt customizable reception</t>
+  </si>
+  <si>
+    <t>Lock objects to area</t>
+  </si>
+  <si>
+    <t>This is so we can be sure certain objects are locked to certain rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different room types </t>
+  </si>
+  <si>
+    <t>Needs to be defined</t>
+  </si>
+  <si>
+    <t>Date management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See GDD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Death </t>
+  </si>
+  <si>
+    <t>Quality of equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chance of breaking dependant onto quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Illness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Illness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal Conditions </t>
+  </si>
+  <si>
+    <t>Pause Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause Game Menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair Screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Controls </t>
+  </si>
+  <si>
+    <t>Clinic Walk-through</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Quickplay</t>
+  </si>
+  <si>
+    <t>Set-up Menu</t>
+  </si>
+  <si>
+    <t>BasicObject</t>
+  </si>
+  <si>
+    <t>ButtonBehaviour</t>
+  </si>
+  <si>
+    <t>ButtonMove</t>
+  </si>
+  <si>
+    <t>CreateObjectOnClick</t>
+  </si>
+  <si>
+    <t>DetectClicksAndTouch</t>
+  </si>
+  <si>
+    <t>PlayAgain</t>
+  </si>
+  <si>
+    <t>GetSelectedObject</t>
+  </si>
+  <si>
+    <t>HealthManager</t>
+  </si>
+  <si>
+    <t>MoneyManager</t>
+  </si>
+  <si>
+    <t>PatientManager</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>PositionButtons</t>
+  </si>
+  <si>
+    <t>ScrollTexture</t>
+  </si>
+  <si>
+    <t>SelectObjectOnClick</t>
+  </si>
+  <si>
+    <t>SwitchScreen</t>
+  </si>
+  <si>
+    <t>TimeManager</t>
+  </si>
+  <si>
+    <t>ToolTipHelper</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>PathThroughObjects</t>
+  </si>
+  <si>
+    <t>ScaleOverTime</t>
+  </si>
+  <si>
+    <t>SellValue</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>InfoButton</t>
+  </si>
+  <si>
+    <t>MoveButton</t>
+  </si>
+  <si>
+    <t>RepairButton</t>
+  </si>
+  <si>
+    <t>SellButton</t>
   </si>
 </sst>
 </file>
@@ -599,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
@@ -616,6 +832,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -924,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A3:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,15 +1329,15 @@
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
@@ -1139,7 +1356,7 @@
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
@@ -1533,17 +1750,17 @@
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
@@ -2222,10 +2439,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2508,259 @@
       <c r="B12" t="s">
         <v>157</v>
       </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2303,10 +2773,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,23 +2824,188 @@
       <c r="B11" t="s">
         <v>145</v>
       </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>144</v>
       </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>146</v>
       </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>147</v>
       </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="232">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -709,6 +709,12 @@
   </si>
   <si>
     <t>SellButton</t>
+  </si>
+  <si>
+    <t>Player Avatar Representation</t>
+  </si>
+  <si>
+    <t>Health Bar on Objects</t>
   </si>
 </sst>
 </file>
@@ -829,10 +835,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1212,16 +1218,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1503,16 +1509,16 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
@@ -1555,16 +1561,16 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -1624,16 +1630,16 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
@@ -1676,16 +1682,16 @@
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
@@ -1862,16 +1868,16 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
@@ -1906,16 +1912,16 @@
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
@@ -1950,16 +1956,16 @@
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
@@ -2002,16 +2008,16 @@
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
@@ -2132,12 +2138,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2155,12 +2161,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2193,12 +2199,12 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -2226,12 +2232,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
@@ -2259,36 +2265,36 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2439,17 +2445,17 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E49"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -2761,6 +2767,18 @@
         <v>202</v>
       </c>
       <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,7 +2793,7 @@
   </sheetPr>
   <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2854,7 +2872,7 @@
       <c r="B16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -1147,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A3:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,9 +1504,9 @@
       <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
@@ -2447,7 +2447,7 @@
   </sheetPr>
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="233">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>Health Bar on Objects</t>
+  </si>
+  <si>
+    <t>Staff Mangement(Hire/Fire/Train)</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A3:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B47" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
   </sheetPr>
   <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2445,10 +2448,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E51"/>
+  <dimension ref="B2:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2541,7 @@
       <c r="B15" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>163</v>
       </c>
@@ -2559,7 +2562,7 @@
       <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -2586,7 +2589,7 @@
       <c r="B22" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2652,7 +2655,7 @@
       <c r="B32" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
       <c r="D32" t="s">
         <v>184</v>
       </c>
@@ -2709,7 +2712,7 @@
       <c r="B40" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -2742,7 +2745,7 @@
       <c r="B45" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2779,6 +2782,12 @@
         <v>231</v>
       </c>
       <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="235">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>Staff Mangement(Hire/Fire/Train)</t>
+  </si>
+  <si>
+    <t>Graph for finance</t>
+  </si>
+  <si>
+    <t>Animated GUI</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2092,7 @@
   </sheetPr>
   <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2448,10 +2454,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E52"/>
+  <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2601,7 @@
       <c r="B23" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="D23" t="s">
         <v>173</v>
       </c>
@@ -2664,7 +2670,7 @@
       <c r="B33" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -2788,6 +2794,18 @@
         <v>232</v>
       </c>
       <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-240" windowWidth="24915" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="25005" yWindow="-150" windowWidth="28710" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="237">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -492,9 +492,6 @@
     <t xml:space="preserve">This is an idea to make it so the user can instantly build a completed room with no issues </t>
   </si>
   <si>
-    <t xml:space="preserve">Tabbed Build Menus </t>
-  </si>
-  <si>
     <t>Existing Properties</t>
   </si>
   <si>
@@ -724,6 +721,15 @@
   </si>
   <si>
     <t>Animated GUI</t>
+  </si>
+  <si>
+    <t>Video Analysis</t>
+  </si>
+  <si>
+    <t>Tabbed Menus</t>
+  </si>
+  <si>
+    <t>Radiator</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1160,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A3:I104"/>
+  <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B47" sqref="B46:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,8 +1417,8 @@
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1462,8 +1468,8 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>27</v>
+      <c r="B35" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1503,43 +1509,43 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1555,57 +1561,57 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="5"/>
+      <c r="B47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>13</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1613,133 +1619,133 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>34</v>
-      </c>
       <c r="B54" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="12" t="s">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="B61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="5"/>
+      <c r="B62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" t="s">
-        <v>148</v>
-      </c>
+      <c r="B63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1755,7 +1761,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1763,50 +1769,47 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C71" s="5"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" t="s">
-        <v>148</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1814,15 +1817,18 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1854,7 +1860,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1870,71 +1876,67 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="B83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>52</v>
+      <c r="B84" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
-        <v>53</v>
+      <c r="B85" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="B88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -1942,43 +1944,43 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="B93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -1986,23 +1988,27 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="B96" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2010,27 +2016,23 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="B99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -2038,23 +2040,27 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="B102" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -2062,23 +2068,47 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B102:I102"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B63:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2456,8 +2486,8 @@
   </sheetPr>
   <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D16:D17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,208 +2551,208 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
         <v>168</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="4"/>
     </row>
@@ -2734,76 +2764,76 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -2891,161 +2921,161 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C41" s="5"/>
     </row>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="25005" yWindow="-150" windowWidth="28710" windowHeight="13395"/>
+    <workbookView xWindow="25005" yWindow="-150" windowWidth="28710" windowHeight="13395" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -1162,7 +1162,7 @@
   </sheetPr>
   <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -2486,8 +2486,8 @@
   </sheetPr>
   <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +2851,7 @@
   <dimension ref="B2:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,13 +2899,13 @@
       <c r="B11" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2971,7 +2971,7 @@
       <c r="B23" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -3059,19 +3059,19 @@
       <c r="B38" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -1162,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,8 +1252,8 @@
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>148</v>
       </c>
@@ -1319,8 +1319,8 @@
         <v>12</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
@@ -1359,8 +1359,8 @@
         <v>16</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -1830,9 +1830,9 @@
       <c r="B76" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
@@ -2486,13 +2486,13 @@
   </sheetPr>
   <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="64.28515625" customWidth="1"/>
   </cols>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="25005" yWindow="-150" windowWidth="28710" windowHeight="13395" activeTab="4"/>
+    <workbookView xWindow="25005" yWindow="-150" windowWidth="28710" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Images" sheetId="2" r:id="rId2"/>
-    <sheet name="Sounds" sheetId="3" r:id="rId3"/>
+    <sheet name="Sounds" sheetId="3" r:id="rId2"/>
+    <sheet name="Images" sheetId="2" r:id="rId3"/>
     <sheet name="Effects" sheetId="4" r:id="rId4"/>
     <sheet name="Features" sheetId="5" r:id="rId5"/>
     <sheet name="Scripts" sheetId="6" r:id="rId6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="238">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>Radiator</t>
+  </si>
+  <si>
+    <t>Day Night Cycles</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,16 +1381,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
@@ -1436,9 +1439,9 @@
       <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
@@ -1452,9 +1455,9 @@
       <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
@@ -1479,9 +1482,9 @@
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -2026,9 +2029,9 @@
       <c r="B99" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
@@ -2118,241 +2121,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A2:E59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B34:E34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="B2:E9"/>
@@ -2411,6 +2179,241 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A2:E59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B34:E34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2484,10 +2487,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2556,7 @@
       <c r="B12" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2640,7 +2643,7 @@
       <c r="B24" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -2760,7 +2763,7 @@
       <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -2775,7 +2778,7 @@
       <c r="B44" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2836,6 +2839,12 @@
         <v>233</v>
       </c>
       <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -1165,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1447,9 +1447,9 @@
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
@@ -1583,8 +1583,8 @@
         <v>34</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Effects" sheetId="4" r:id="rId4"/>
     <sheet name="Features" sheetId="5" r:id="rId5"/>
     <sheet name="Scripts" sheetId="6" r:id="rId6"/>
+    <sheet name="Credits" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="267">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -733,13 +734,100 @@
   </si>
   <si>
     <t>Day Night Cycles</t>
+  </si>
+  <si>
+    <t>Hovering Repair Button</t>
+  </si>
+  <si>
+    <t>Equipment Cupboard</t>
+  </si>
+  <si>
+    <t>Restockable Items</t>
+  </si>
+  <si>
+    <t>Micheal Fish</t>
+  </si>
+  <si>
+    <t>Paul Dagg</t>
+  </si>
+  <si>
+    <t>Micheal Concannen</t>
+  </si>
+  <si>
+    <t>Blake Kendrick</t>
+  </si>
+  <si>
+    <t>Project Leaders</t>
+  </si>
+  <si>
+    <t>Lead Programmer</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTSU Leader </t>
+  </si>
+  <si>
+    <t>Mike Talbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity Serialisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Thanks </t>
+  </si>
+  <si>
+    <t>Walker Boys Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity </t>
+  </si>
+  <si>
+    <t>Pushy Pixels</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Ben Hands</t>
+  </si>
+  <si>
+    <t>Carrie Mitchell</t>
+  </si>
+  <si>
+    <t>Benjii Dawson</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Additional Artwork</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Jim Hartley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duane Laverick </t>
+  </si>
+  <si>
+    <t>Torrence Cook</t>
+  </si>
+  <si>
+    <t>Additional Shader Code</t>
+  </si>
+  <si>
+    <t>Lead Artist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +871,14 @@
       <b/>
       <u/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -839,7 +935,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
@@ -854,6 +950,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A3:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1342,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1535,16 +1641,16 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -1587,16 +1693,16 @@
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1656,16 +1762,16 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
@@ -1716,16 +1822,16 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
@@ -1910,16 +2016,16 @@
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
@@ -1954,16 +2060,16 @@
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
@@ -1998,16 +2104,16 @@
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
@@ -2050,16 +2156,16 @@
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
@@ -2245,12 +2351,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2268,12 +2374,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2306,12 +2412,12 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -2339,12 +2445,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
@@ -2372,36 +2478,36 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2487,10 +2593,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:E55"/>
+  <dimension ref="B2:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,13 +2755,13 @@
       <c r="B25" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -2667,7 +2773,7 @@
       <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -2703,7 +2809,7 @@
       <c r="B33" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -2724,7 +2830,7 @@
       <c r="B36" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="D36" t="s">
         <v>189</v>
       </c>
@@ -2844,7 +2950,25 @@
       <c r="B55" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,8 +2983,8 @@
   </sheetPr>
   <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,13 +3050,13 @@
       <c r="B14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2992,7 +3116,7 @@
       <c r="B25" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -3087,6 +3211,171 @@
         <v>228</v>
       </c>
       <c r="C41" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Documentation/Asset List.xlsx
+++ b/Assets/Documentation/Asset List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="270">
   <si>
     <t>Model Asset List</t>
   </si>
@@ -821,6 +821,15 @@
   </si>
   <si>
     <t>Lead Artist</t>
+  </si>
+  <si>
+    <t>Picture Frames</t>
+  </si>
+  <si>
+    <t>Multiple textures</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1278,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A3:I107"/>
+  <dimension ref="A3:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,35 +1643,38 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>267</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
+      <c r="H42" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1670,7 +1682,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1678,128 +1690,128 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>13</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
       <c r="B52" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>34</v>
-      </c>
       <c r="B55" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1807,62 +1819,62 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" t="s">
-        <v>148</v>
-      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1870,7 +1882,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1878,7 +1890,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1886,7 +1898,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1894,15 +1906,15 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4"/>
@@ -1910,15 +1922,15 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C73" s="5"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1926,34 +1938,34 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" t="s">
-        <v>148</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
+      <c r="F76" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1961,7 +1973,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1969,15 +1981,15 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1985,7 +1997,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1993,7 +2005,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2001,7 +2013,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2009,43 +2021,43 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
+      <c r="B86" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>52</v>
+      <c r="B87" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2053,43 +2065,43 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+      <c r="B91" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2097,95 +2109,95 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="B96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="B102" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="B104" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -2193,7 +2205,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -2201,23 +2213,39 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B102:I102"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="B104:I104"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B64:I64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
